--- a/500all/speech_level/speeches_CHRG-114hhrg93884.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93884.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,39 +52,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Madam Chairwoman.    I want to welcome the witnesses to this afternoon's hearing.    I am troubled by some of the things we know and some of the things we don't know about privacy and security on HealthCare.gov. We have a couple of very good witnesses today who I look forward to hearing from. Unfortunately, neither of these experts had any role in developing HealthCare.gov or decisions regarding privacy and security, but I do hope that the testimony will help shape some of the questions we should be asking those who did have a role in those decisions.    Given the problematic rollout of HealthCare.gov and problems with some state exchange websites such as those with the D.C. marketplace, it is clear that the implementation of the technical side of the Affordable Care Act merits Congressional review and oversight. While HealthCare.gov functionality has improved since last year and CMS has been responsive to reports of potential security or privacy weaknesses as they have been identified, we should continue to conduct oversight because the type of personal data that is inputted into the site raises the potential for serious problems.    Yet we must also make sure that we are clear on the context. We are here today because of recent news reports about the use of third-party analytics tools on HealthCare.gov, as the Chairwoman mentioned. Data analytics tools can be valuable for tracking how websites are being used and optimizing the website for the consumer. While I am on the record about my reservations about the Affordable Care Act, I also understand the motivation of increasing traffic to the HealthCare.gov website in an effort to get more people signed up for health insurance.    However, we must hold the government to the highest standards for privacy and security. This is especially true for a website like HealthCare.gov in which people enter highly private and sensitive information. I have concerns based on the initial news reports that the high standards may not have been applied to privacy on HealthCare.gov. However, the news reports, like today's testimony, have provided more questions than answers. We must also be careful to distinguish between privacy and security and where the true vulnerabilities may be for each. In short, we have a responsibility to gather all the facts before coming to any conclusions but we need to get those facts.    I understand, Madam Chairwoman, that you are trying to schedule a second hearing with Administration officials who have direct knowledge of the issues before us today. I think such a hearing, in addition to more staff homework, will be necessary before we can draw any clear conclusions or proposals for moving forward.    In addition, I would note that privacy is a big issue across the internet. Data analytics tools can help improve customer experience but their ubiquity and integration into the working of so many websites means that Americans concerned about their privacy may have little real choice when it comes to how they can manage the release of their information. Ms. De Mooy addresses some of that in her testimony and I look forward to the discussion on the broader issues. While we may hold the government to higher standards, it is incumbent upon us to declare the steps we can take to ensure that Americans are able to safeguard their personal data across the online environment as a whole.    Finally, while this hearing will focus on online data privacy, it is critical to recognize that using the internet is far from the only way for Americans' private information to be lost. In his testimony, Mr. Wright addresses the difficulty of anonymizing data and the ease with which individuals can be identified from just a few pieces of information about their day-to-day activities such as purchases charged through a credit card. Given this testimony, this Committee may want to be careful about efforts to publicly disclose study data related to the health impacts of the air pollutants used in the EPA regulation. It is an issue that we debated in the last Congress and I think this is something that we need to consider, the problems with anonymizing data, as we move forward.    I look forward to hearing from the witnesses today, and with that, I yield back.</t>
   </si>
   <si>
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Chairwoman Comstock. I appreciate the opportunity to be here, and welcome to all of our witnesses here today. And I am looking forward to hearing from each of you as we gather information on this very important issue.    Just last week, I joined many of my Republican colleagues to vote for a full repeal of ObamaCare. This sweeping healthcare law has punished countless Americans by doubling some health insurance costs for the same or less coverage in many cases by no longer being able to use the plans they were promised to keep.    That same healthcare law created HealthCare.gov, a federally operated health insurance exchange website to assist Americans in signing up for healthcare coverage. As reported by the Associated Press on January 20, 2015, dozens of companies, including Google, Facebook, and Twitter, had embedded connections to HealthCare.gov. Essentially, when a consumer was applying for coverage on the website, it is possible that some or all of those data companies were able to tell, at the very least, when a person was on the site, their age, their income, their ZIP code, and whether they smoked or even if they were pregnant.    The Centers for Medicare and Medicaid Services claim that this kind of data mining is necessary for data analytics in order to improve user experience. If that is the case, however, I wonder why the number of embedded connections to the website has significantly dropped since the first news story on the matter. Did the Administration actually know and approve all the companies that were connected to HealthCare.gov?    One of our witnesses here today comes from the Center for Democracy and Technology, which compiles similar analytics in-house instead of through a slew of different companies. This technique decreases privacy and security vulnerabilities by giving website access to a minimum number of individuals who are able to improve user experience without compromising user information.    Having multiple outside connections to HealthCare.gov means more vendors have access to the website, which only means one thing: increased vulnerabilities. About one year ago, hackers were able to use just one vendor, an HVAC company based in Pennsylvania, to obtain credit and debit card information of millions of Target customers nationwide.    Cybercriminals appear to be increasingly interested in the personal information collected by U.S. insurers, so much so that a recent Reuters article warned that 2015 could be ``the Year of the Healthcare Hack.'' So far, it looks as though they are right. Just last week, it was disclosed that a database containing personal information for about 80 million customers of health insurer Anthem, Incorporated, was hacked. It is feared that this breach exposed names, birthdays, addresses, and Social Security numbers--all information that HealthCare.gov website requests of its customers.    As someone with a background in the IT sector, I find what appears to be extensive tracking of Americans' personal information extremely disconcerting and unnecessary. Americans were first misled when their President told them ``if you like your healthcare insurance plan, you can keep it,'' and now it seems like they are being misled into thinking that their personal information on HealthCare.gov is as secure as it can be.    Considering that HealthCare.gov is one of the largest collections of personal information ever assembled, it is extremely important that the Administration implements best practices to protect Americans' privacy. This Administration ultimately has a responsibility to ensure that personal data collected is secure, and Congressional oversight will continue until the Administration has proved that it is doing all it can to protect the American people.    I look forward to today's hearing where I hope to gain some insight from our expert witnesses on the possible reasoning for why scores of data mining companies would be embedded on HealthCare.gov, as well as the potential consequences of them having access to the website. The American people deserve to know the truth and are owed some level of transparency from this Administration as to how their information on HealthCare.gov is being collected, used, and secured.    Madam Chair, I yield back my time.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Madam Chair Comstock, and Chairman Loudermilk for holding this hearing today.    Recent news stories on the sharing of the HealthCare.gov visitor data with third parties really does raise very legitimate privacy concerns. According to these news reports, which we have heard, various personal data was being provided at multiple third-party websites and application tools embedded in the website. No personally identifiable information was provided to third parties but news reports also suggest that the information was being provided to third parties without the clear consent or any knowing consent of the visitors to the site.    I think there are many questions that the Members on both sides of the aisle have about HealthCare.gov implementing the use of third-party tools. What restrictions were placed on the use of this data by third parties? Was there even a need for third-party tools on the website? How do these tools improve the function of the website, users' experience? Could some of this work have been done in-house?    Unfortunately, we are not going to be able to get definitive answer to those questions today. I understand the majority invited government witnesses but they deferred citing too short notice to prepare their testimony. My understanding is they will be coming again later with the proper set of government witnesses to address these issues. In a perfect world, we would have had that first but right now I guess we have to deal with a lot of speculation and discover the government facts later.    The use of third-party website tools on HealthCare.gov has drawn an awful lot of public attention but I hope our witnesses, particularly Ms. De Mooy, can help us explore the larger privacy issues involved.    The use of third-party websites is worrisome but it is certainly not unusual in the digital online environment. One recent study found that the top 100 most popular websites were being monitored by more than 1,300 firms deploying these third-party tools. And while I believe we should definitely explore the privacy implications of using the third-party websites, this too is only a small part of the privacy pie.    From the moment we enter the digital domain, whether it is turning on our cell phone, logging onto the internet, opening up a tablet or other digital device, our data is collected, collated, and analyzed by corporations, organizations, government agencies, and particularly online advertising companies. In the physical world, our identities are often measured by details on our driver's licenses, birthday, height, gender, weight, but in the digital world, the metrics used to measure who we are seem to be based on observing the web pages we visit, the purchases we make, the people we personally socialize, the news items we read, and the movies we watch. And I am concerned about the use of these new metrics that constantly track and measure our personal lives online.    On the security side, we should also realize that any IT infrastructure is constantly evolving and improving. It is unclear if the use of third-party tools have any direct impact yet at least on the security of HealthCare.gov but also need this--this needs to be put in perspective. Chairman Loudermilk mentioned Anthem's recent breach exposing the accounts of 80 million customers. That is eight times the number of people who have signed up through--for the Affordable Care Act through HealthCare.gov.    Since the launch of HealthCare.gov, an additional 10 million Americans have healthcare coverage, and I believe that extending these healthcare market opportunities to 10 million Americans is a tremendously positive event for millions of families across the country. So we have very dark conjectures around the security of the website which we must address, but we also can't--must keep all of this in perspective about the millions of families who have been helped.    I hope this hearing helps us explore these broad privacy issues and I look forward to hearing from our witnesses. I yield back, Mr. Chair--Madam Chair.</t>
   </si>
   <si>
-    <t>De Mooy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. De Mooy. Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, Ranking Member Beyer, and Members of the Committee, thank you for the opportunity to come here today and testify on behalf of the Center for Democracy and Technology.    CDT is a nonpartisan, nonprofit technology policy advocacy organization dedicated to protecting civil liberties and human rights on the internet, including privacy, free expression, and access to information. I currently serve as the Deputy Director of CDT's Consumer Privacy Project.    We welcome the attention the Committee has given to be pressing issues of consumer data privacy and security through the lens of data sharing on HealthCare.gov. I will review first the data-sharing practices on HealthCare.gov, discuss the privacy and security concerns that these bring up, and make five concrete recommendations for the government to address these concerns.    Several weeks ago, the security firm Catchpoint Systems found that user information was being shared with over 50 entities on HealthCare.gov without user knowledge or permission. When citizens visit HealthCare.gov to learn more about the programs offered to them under the Affordable Care Act, they are asked to give certain pieces of personal information order to show which health insurance plans they qualify for. After submitting this information, HealthCare.gov then surprisingly sent a referral URL to an array of third parties that included some of this information that the consumers had submitted to the site, including parental status, ZIP code, and annual income. This information is used both by websites themselves and third parties for website analytics, as well as for advertising and marketing purposes, also known as retargeting.    For HealthCare.gov administration officials have said that the refer URL was directed to third parties in order to give consumers a simpler, more streamlined, and intuitive experience, and this is doubtless true. However, the government's decision to work with outside vendors allowed private companies to access user information without their knowledge or consent. It is not clear if HealthCare.gov used tracking technologies for retargeting purposes but it appears likely to have played a role.    The use of retargeting in order to increase awareness of and enrollment in available health insurance plans would have been an understandable goal for the government. It is not, however, a free pass for the government to share user information and characteristics with an array of third-party commercial entities, without permission.    Sharing of personal information with third parties is a privacy concern for several reasons. People who visit government websites often do not have a choice. They must visit a designated online place in order to access specific government products and services. Personal data is valuable. When personal information is collected and shared, it is often combined with other data to build individual profiles. This profile is used to target products and services to you and is increasingly also used to create consumer scores that function similarly to credit scores. Health information in particular is sold for a high premium on underground markets, some experts estimate up to $40 to $50 a record, because it is fairly easy to monetize for criminals seeking to bill expensive medical items to Medicaid, for example, or to commit medical identity theft. The theft or use of health information is much harder to recognize and stop than the theft of financial data and more difficult for victims to seek redress.    The number of third-party content providers loading code into the browsers of visitors on HealthCare.gov poses serious security issues. Researchers have pointed to third-party content as one of the primary ways for websites to be infected with malware. Hackers wishing to compromise the integrity of third-party content providers can accomplish a wide range of attacks from simply changing the content of the page to capturing user information and credentials like passwords.    There is no evidence that personal information from HealthCare.gov has been misused but the number of outside parties that can load content and that can see personal information about users is troubling.    Overall, the privacy and security missteps taken by HealthCare.gov were avoidable. We recommend that the government immediately take the following steps: 1) follow sensible guidance available to them and to Office of Management and Budget documents on third-party sharing; 2) implement the six recommendations to protect user privacy and security on HealthCare.gov made in a 2014 report by the Government Accountability Office; 3) strengthen HealthCare.gov's privacy policy limiting third-party sharing only to which it needs to function; 4) implement in-house analytic software that does not report user data back to the software maker; 5) honor the wishes of consumers that express a preference in their browsers not to be tracked.    Ultimately, Congress can best protect consumer information by strengthening legal incentives for companies to better safeguard data and by enacting comprehensive data privacy legislation to give users more control over how their information is collected and used.    Thank you.</t>
   </si>
   <si>
-    <t>Wright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wright. And it is a pleasure to be in the 10th District. Thank you.    Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, and Ranking Member Beyer, and Members of the Committee, thank you for inviting me again to testify.    I am Morgan Wright. I am a Principal of Morgan Wright, LLC. I provide advisory and consulting services to the private sector in the area of cybersecurity, advanced technology introduction, strategic planning, and identity theft solutions. In addition, I am currently a Senior Fellow for the Center for Digital Government. The Center is an advisory institute on information technology policies and best practices in state and local government.    Now, I had the honor of testifying before the Committee on November 18, 2013, concerning the security of HealthCare.gov at that time. Since that time, there has been progress made in addressing security and privacy concerns, but yet I find myself repeating many of the same observations today that I made nearly 15 months ago.    I was posed three questions from the Committee. As to the first question, in the healthcare field, there is an approach they call minimum effective dose, which is the lowest dose level that you need to get a significant response. If we apply that to third-party applications on the site, it is apparent to see that out of the 50 previously reported compared to the 11 I observed this morning when I checked the site again, that was an overdose not needed as evidenced by the action of removing 39 of them since discovery. In comparison, Whitehouse.gov and IRS.gov have only four and two third-party applications running respectively. There is no doubt some level of measurement is needed but 50 is digital overkill.    Numerous questions need to be answered by CMS. Are there any written agreements governing the collection and use of PII? How long has each third party been active on the site? How is the use of data governed and audited? Were consumers ever notified that their PII was being shared with third parties? And these are just a few of the questions.    As to the second question, the security of the site has been a primary point of weakness since before the launch on October 1, 2013. In my previous testimony, I highlighted several major issues prior to and after launch. Among them was the lack of and an ability to conduct an end-to-end security test on the production system. The fact that numerous security flaws, flaws that are the most basic type, are left to be discovered by outside third parties, makes it appear HealthCare.gov is crowdsourcing the security and privacy of this important site.    In September of 2014 the GAO issued a report on the site. The highlights state in part that weaknesses remain in both the processes used for managing information security and privacy, as well as the technical implementation of IT security controls. Just some of the key findings: one of the key findings, CMS has not fully implemented security and privacy management controls. It stated that it did not fully implement actions required by NIST before collecting and maintaining PII.    Another finding: CMS did not document key controls in system security plans. The findings said without complete system security plans, it will be difficult to make a fully informed judgment regarding the risk. Look, if an authorized security decision-maker cannot be fully informed to understand the current risk, it is inconceivable to think that sufficient information exists today to enable 50 third-party applications to operate on HealthCare.gov and to fully understand the associated risk.    Another finding: CMS did not conduct complete security testing. This is an echo of my previous testimony.    And one of the final ones: control weaknesses continue to threaten information and systems supporting HealthCare.gov. And in the finding it said CMS--and this is the troubling one--CMS did not restrict systems supporting the federally facilitated marketplace, FFM, from accessing the internet allowing these systems to access the internet may allow for unauthorized users to access data from the FFM network, increasing the risk that an attacker with access to the FFM could send data to an outside system or that malware could communicate with the command-and-control server.    The unmanaged access to outside connectivity is very disconcerting. The documented activities of Unit 6139A of the Chinese People's Liberation Army and the indictment of five of their members relied upon this exact recipe for their activities. The introduction of third-party applications combined with lack of security, oversight, and control raises the specter of current and undetected state-sponsored penetration of HealthCare.gov. Significant data breaches have been accomplished against far more secure systems.    And as to question three, as NIST continues its leadership role, it has spearheaded the development of the framework for improving critical infrastructure cybersecurity. A review of the framework provides valuable approaches for CMS to utilize in securing the site. The aspect of privacy is so fundamental that it was referred to 30 times in the document. One of the foundational documents is their Special Publication for Information Systems and a key section of the document is Appendix J, Privacy Control. It is a relatively new section but I believe that there is one control under there, AR-3, privacy requirements for contractors and service providers would be applicable in this case to the use of third-party applications and, if followed, would have allowed--would not have allowed for the proliferation of unmanaged data collection.    So thank you for your time and I look forward to your questions.</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Madam Chairman. And thank you to the panelists for being here today.    I can tell you that as a 30-plus year IT professional both in the Department of Defense and in the private sector I remain very, very concerned about the inadequacy of security and the safeguarding of consumers', hard-working taxpayers' personal private information.    Ms. De Mooy, in May of 2013 the President issued that Executive Order to establish an open data policy to make open and machine-readable data the new default for government information taking really historic steps to make government-held data more accessible to the public and to entrepreneurs while appropriately safeguarding sensitive information and rigorously protecting privacy, or so it is stated.    Let's go back for a second so that I can get this straight. Is it mandated in your opinion--it has been mandated by the government that Americans need to sign up for healthcare and that, for the most part, they will do so on the government-created website HealthCare.gov, correct?</t>
   </si>
   <si>
@@ -235,9 +217,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Madam Chairman.    I understand the purpose of retargeting. When I look at a barbecue or a bathroom vanity or a power tool on a hardware store website, I understand, but it doesn't necessarily make me comfortable that the same product pops up on the next website that I visit. And, you know, I understand the idea that companies want to be able to target me in a similar way, but I don't understand why HealthCare.gov would feel the need to have such similar tactics incorporated as to hardware store or Zappos or whatever. I mean it seems like a larger invasion of privacy. It seems like a larger invasion of privacy to me. Just wondering what your thoughts are, both of you?</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t xml:space="preserve">    Mr. Posey. Very good.    Thank you, Madam Chair. I yield back.    Chairwoman Comstock. Thank you.    I now recognize Ms. Bonamici for five minutes.</t>
   </si>
   <si>
-    <t>Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chair Comstock and Ranking Member Lipinski.    This has been a very interesting discussion, and I have to say that it really highlights the issues of--two issues of importance: access to healthcare and protection of personal privacy. I spent part of this morning in a hearing in the Education Committee about privacy regarding student records, and I said then and will say again that whenever we are talking about legislating in the area of technology, it is always a challenge to find the right balance because, as we all know, the technology advances usually a lot quicker than the legislation so we want to make sure that we are finding the balance that protects people's privacy but does not inhibit valid, useful purposes for technology and advances in technology.    So I really do look forward to hearing from CMS and hearing their answers. I know we have had some hearings on this issue before but highlighting from them. As Ranking Member Beyer said, it would have been best to have them answer questions first and then we could follow up on what they said.    But, you know, I want to say that we all acknowledge that there are legitimate problems with HealthCare.gov. Certainly in my State of Oregon we did not do a good job at all with that. But it is also important to remember that the Affordable Care Act is about more than a website; it is about access to healthcare for millions of Americans.    I want to make sure that we don't, in this hearing and other hearings in the future, spread any sort of unfounded fear or misinformation when really our constituents are looking for clarity. So I hope we can help inform them about ways that they can protect their privacy online and specifically keep their personal information safe.    And I want to ask you, Ms. De Mooy, and follow up on the conversation you were having with Mr. Posey, that you say in your testimony that consumers from disadvantaged communities face more potential harm such as being profiled in databanks. So given the importance of the Affordable Care Act to disadvantaged communities that have historically lacked access to affordable healthcare, how can HealthCare.gov do a better job of serving those consumers while also protecting their privacy?</t>
   </si>
   <si>
@@ -310,9 +286,6 @@
     <t xml:space="preserve">    Ms. Bonamici. Thank you so much, and my time has expired. I yield back.    Thank you, Madam Chair.    Chairwoman Comstock. Okay. And now I recognize Mr. Palmer for five minutes.</t>
   </si>
   <si>
-    <t>Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Following on that line of questioning, in the Anthem hack, the hackers got access to medical IDs and that is a little bit more problematic than just finding out what drugs people buy and whether or not they exercise, that sort of thing. Would it not create some issues in regard to violation of the HIPAA laws if a company bought that data and was able to specifically target advertising to people, for instance, who are diabetic or have certain other conditions? Let me address that Mr. Wright.</t>
   </si>
   <si>
@@ -371,9 +344,6 @@
   </si>
   <si>
     <t>412319</t>
-  </si>
-  <si>
-    <t>Paul Tonko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    The traffic to the federal government health insurance website was up 58 percent compared to the same time last week in a week-to-week measurement. That was some 275,000 individuals that signed up, making it the busiest enrollment period of the past two months, and the comparisons from last year to this year are ``as an experience, pretty dramatic.'' What is your reaction to that?</t>
@@ -817,11 +787,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -841,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -867,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -895,11 +859,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -921,11 +883,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -947,11 +907,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -973,11 +931,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -999,11 +955,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1025,11 +979,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1051,11 +1003,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1077,11 +1027,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1103,11 +1051,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1129,11 +1075,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1155,11 +1099,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1181,11 +1123,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1207,11 +1147,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1233,11 +1171,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1259,11 +1195,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1285,11 +1219,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1311,11 +1243,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1335,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1363,11 +1291,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1387,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1415,11 +1339,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1439,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1467,11 +1387,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1491,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1519,11 +1435,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1543,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1571,11 +1483,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1595,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1623,11 +1531,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1647,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1675,11 +1579,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1699,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1727,11 +1627,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1751,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1779,11 +1675,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1803,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1831,11 +1723,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1855,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1881,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1909,11 +1795,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1933,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1961,11 +1843,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1985,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2013,11 +1891,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2037,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2065,11 +1939,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2089,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2117,11 +1987,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2141,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2167,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2195,11 +2059,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2221,11 +2083,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2245,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2273,11 +2131,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2297,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2325,11 +2179,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2349,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2377,11 +2227,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2403,11 +2251,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2429,11 +2275,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2455,11 +2299,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2481,11 +2323,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2507,11 +2347,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2533,11 +2371,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>82</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2559,11 +2395,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2585,11 +2419,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>82</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2611,11 +2443,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2637,11 +2467,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2663,11 +2491,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2689,11 +2515,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>82</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2715,11 +2539,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2741,11 +2563,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>82</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2767,11 +2587,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>98</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2793,11 +2611,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2819,11 +2635,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>98</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2845,11 +2659,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2871,11 +2683,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>98</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2897,11 +2707,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2923,11 +2731,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>98</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2949,11 +2755,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2975,11 +2779,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>98</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3001,11 +2803,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3027,11 +2827,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3053,11 +2851,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>98</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3079,11 +2875,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3105,11 +2899,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>98</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3131,11 +2923,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3157,11 +2947,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>98</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3183,11 +2971,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3209,11 +2995,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>98</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3235,11 +3019,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3261,11 +3043,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>98</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3285,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3313,11 +3091,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3337,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3365,11 +3139,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3389,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3417,11 +3187,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>20</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3441,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3469,11 +3235,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3493,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>118</v>
-      </c>
-      <c r="G105" t="s">
-        <v>119</v>
-      </c>
-      <c r="H105" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3521,11 +3283,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3545,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G107" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3573,11 +3331,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3597,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
-      </c>
-      <c r="G109" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3625,11 +3379,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>20</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3649,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
-      </c>
-      <c r="G111" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3677,11 +3427,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93884.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93884.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Madam Chairwoman.    I want to welcome the witnesses to this afternoon's hearing.    I am troubled by some of the things we know and some of the things we don't know about privacy and security on HealthCare.gov. We have a couple of very good witnesses today who I look forward to hearing from. Unfortunately, neither of these experts had any role in developing HealthCare.gov or decisions regarding privacy and security, but I do hope that the testimony will help shape some of the questions we should be asking those who did have a role in those decisions.    Given the problematic rollout of HealthCare.gov and problems with some state exchange websites such as those with the D.C. marketplace, it is clear that the implementation of the technical side of the Affordable Care Act merits Congressional review and oversight. While HealthCare.gov functionality has improved since last year and CMS has been responsive to reports of potential security or privacy weaknesses as they have been identified, we should continue to conduct oversight because the type of personal data that is inputted into the site raises the potential for serious problems.    Yet we must also make sure that we are clear on the context. We are here today because of recent news reports about the use of third-party analytics tools on HealthCare.gov, as the Chairwoman mentioned. Data analytics tools can be valuable for tracking how websites are being used and optimizing the website for the consumer. While I am on the record about my reservations about the Affordable Care Act, I also understand the motivation of increasing traffic to the HealthCare.gov website in an effort to get more people signed up for health insurance.    However, we must hold the government to the highest standards for privacy and security. This is especially true for a website like HealthCare.gov in which people enter highly private and sensitive information. I have concerns based on the initial news reports that the high standards may not have been applied to privacy on HealthCare.gov. However, the news reports, like today's testimony, have provided more questions than answers. We must also be careful to distinguish between privacy and security and where the true vulnerabilities may be for each. In short, we have a responsibility to gather all the facts before coming to any conclusions but we need to get those facts.    I understand, Madam Chairwoman, that you are trying to schedule a second hearing with Administration officials who have direct knowledge of the issues before us today. I think such a hearing, in addition to more staff homework, will be necessary before we can draw any clear conclusions or proposals for moving forward.    In addition, I would note that privacy is a big issue across the internet. Data analytics tools can help improve customer experience but their ubiquity and integration into the working of so many websites means that Americans concerned about their privacy may have little real choice when it comes to how they can manage the release of their information. Ms. De Mooy addresses some of that in her testimony and I look forward to the discussion on the broader issues. While we may hold the government to higher standards, it is incumbent upon us to declare the steps we can take to ensure that Americans are able to safeguard their personal data across the online environment as a whole.    Finally, while this hearing will focus on online data privacy, it is critical to recognize that using the internet is far from the only way for Americans' private information to be lost. In his testimony, Mr. Wright addresses the difficulty of anonymizing data and the ease with which individuals can be identified from just a few pieces of information about their day-to-day activities such as purchases charged through a credit card. Given this testimony, this Committee may want to be careful about efforts to publicly disclose study data related to the health impacts of the air pollutants used in the EPA regulation. It is an issue that we debated in the last Congress and I think this is something that we need to consider, the problems with anonymizing data, as we move forward.    I look forward to hearing from the witnesses today, and with that, I yield back.</t>
   </si>
   <si>
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Chairwoman Comstock. I appreciate the opportunity to be here, and welcome to all of our witnesses here today. And I am looking forward to hearing from each of you as we gather information on this very important issue.    Just last week, I joined many of my Republican colleagues to vote for a full repeal of ObamaCare. This sweeping healthcare law has punished countless Americans by doubling some health insurance costs for the same or less coverage in many cases by no longer being able to use the plans they were promised to keep.    That same healthcare law created HealthCare.gov, a federally operated health insurance exchange website to assist Americans in signing up for healthcare coverage. As reported by the Associated Press on January 20, 2015, dozens of companies, including Google, Facebook, and Twitter, had embedded connections to HealthCare.gov. Essentially, when a consumer was applying for coverage on the website, it is possible that some or all of those data companies were able to tell, at the very least, when a person was on the site, their age, their income, their ZIP code, and whether they smoked or even if they were pregnant.    The Centers for Medicare and Medicaid Services claim that this kind of data mining is necessary for data analytics in order to improve user experience. If that is the case, however, I wonder why the number of embedded connections to the website has significantly dropped since the first news story on the matter. Did the Administration actually know and approve all the companies that were connected to HealthCare.gov?    One of our witnesses here today comes from the Center for Democracy and Technology, which compiles similar analytics in-house instead of through a slew of different companies. This technique decreases privacy and security vulnerabilities by giving website access to a minimum number of individuals who are able to improve user experience without compromising user information.    Having multiple outside connections to HealthCare.gov means more vendors have access to the website, which only means one thing: increased vulnerabilities. About one year ago, hackers were able to use just one vendor, an HVAC company based in Pennsylvania, to obtain credit and debit card information of millions of Target customers nationwide.    Cybercriminals appear to be increasingly interested in the personal information collected by U.S. insurers, so much so that a recent Reuters article warned that 2015 could be ``the Year of the Healthcare Hack.'' So far, it looks as though they are right. Just last week, it was disclosed that a database containing personal information for about 80 million customers of health insurer Anthem, Incorporated, was hacked. It is feared that this breach exposed names, birthdays, addresses, and Social Security numbers--all information that HealthCare.gov website requests of its customers.    As someone with a background in the IT sector, I find what appears to be extensive tracking of Americans' personal information extremely disconcerting and unnecessary. Americans were first misled when their President told them ``if you like your healthcare insurance plan, you can keep it,'' and now it seems like they are being misled into thinking that their personal information on HealthCare.gov is as secure as it can be.    Considering that HealthCare.gov is one of the largest collections of personal information ever assembled, it is extremely important that the Administration implements best practices to protect Americans' privacy. This Administration ultimately has a responsibility to ensure that personal data collected is secure, and Congressional oversight will continue until the Administration has proved that it is doing all it can to protect the American people.    I look forward to today's hearing where I hope to gain some insight from our expert witnesses on the possible reasoning for why scores of data mining companies would be embedded on HealthCare.gov, as well as the potential consequences of them having access to the website. The American people deserve to know the truth and are owed some level of transparency from this Administration as to how their information on HealthCare.gov is being collected, used, and secured.    Madam Chair, I yield back my time.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Madam Chair Comstock, and Chairman Loudermilk for holding this hearing today.    Recent news stories on the sharing of the HealthCare.gov visitor data with third parties really does raise very legitimate privacy concerns. According to these news reports, which we have heard, various personal data was being provided at multiple third-party websites and application tools embedded in the website. No personally identifiable information was provided to third parties but news reports also suggest that the information was being provided to third parties without the clear consent or any knowing consent of the visitors to the site.    I think there are many questions that the Members on both sides of the aisle have about HealthCare.gov implementing the use of third-party tools. What restrictions were placed on the use of this data by third parties? Was there even a need for third-party tools on the website? How do these tools improve the function of the website, users' experience? Could some of this work have been done in-house?    Unfortunately, we are not going to be able to get definitive answer to those questions today. I understand the majority invited government witnesses but they deferred citing too short notice to prepare their testimony. My understanding is they will be coming again later with the proper set of government witnesses to address these issues. In a perfect world, we would have had that first but right now I guess we have to deal with a lot of speculation and discover the government facts later.    The use of third-party website tools on HealthCare.gov has drawn an awful lot of public attention but I hope our witnesses, particularly Ms. De Mooy, can help us explore the larger privacy issues involved.    The use of third-party websites is worrisome but it is certainly not unusual in the digital online environment. One recent study found that the top 100 most popular websites were being monitored by more than 1,300 firms deploying these third-party tools. And while I believe we should definitely explore the privacy implications of using the third-party websites, this too is only a small part of the privacy pie.    From the moment we enter the digital domain, whether it is turning on our cell phone, logging onto the internet, opening up a tablet or other digital device, our data is collected, collated, and analyzed by corporations, organizations, government agencies, and particularly online advertising companies. In the physical world, our identities are often measured by details on our driver's licenses, birthday, height, gender, weight, but in the digital world, the metrics used to measure who we are seem to be based on observing the web pages we visit, the purchases we make, the people we personally socialize, the news items we read, and the movies we watch. And I am concerned about the use of these new metrics that constantly track and measure our personal lives online.    On the security side, we should also realize that any IT infrastructure is constantly evolving and improving. It is unclear if the use of third-party tools have any direct impact yet at least on the security of HealthCare.gov but also need this--this needs to be put in perspective. Chairman Loudermilk mentioned Anthem's recent breach exposing the accounts of 80 million customers. That is eight times the number of people who have signed up through--for the Affordable Care Act through HealthCare.gov.    Since the launch of HealthCare.gov, an additional 10 million Americans have healthcare coverage, and I believe that extending these healthcare market opportunities to 10 million Americans is a tremendously positive event for millions of families across the country. So we have very dark conjectures around the security of the website which we must address, but we also can't--must keep all of this in perspective about the millions of families who have been helped.    I hope this hearing helps us explore these broad privacy issues and I look forward to hearing from our witnesses. I yield back, Mr. Chair--Madam Chair.</t>
   </si>
   <si>
+    <t>De Mooy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. De Mooy. Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, Ranking Member Beyer, and Members of the Committee, thank you for the opportunity to come here today and testify on behalf of the Center for Democracy and Technology.    CDT is a nonpartisan, nonprofit technology policy advocacy organization dedicated to protecting civil liberties and human rights on the internet, including privacy, free expression, and access to information. I currently serve as the Deputy Director of CDT's Consumer Privacy Project.    We welcome the attention the Committee has given to be pressing issues of consumer data privacy and security through the lens of data sharing on HealthCare.gov. I will review first the data-sharing practices on HealthCare.gov, discuss the privacy and security concerns that these bring up, and make five concrete recommendations for the government to address these concerns.    Several weeks ago, the security firm Catchpoint Systems found that user information was being shared with over 50 entities on HealthCare.gov without user knowledge or permission. When citizens visit HealthCare.gov to learn more about the programs offered to them under the Affordable Care Act, they are asked to give certain pieces of personal information order to show which health insurance plans they qualify for. After submitting this information, HealthCare.gov then surprisingly sent a referral URL to an array of third parties that included some of this information that the consumers had submitted to the site, including parental status, ZIP code, and annual income. This information is used both by websites themselves and third parties for website analytics, as well as for advertising and marketing purposes, also known as retargeting.    For HealthCare.gov administration officials have said that the refer URL was directed to third parties in order to give consumers a simpler, more streamlined, and intuitive experience, and this is doubtless true. However, the government's decision to work with outside vendors allowed private companies to access user information without their knowledge or consent. It is not clear if HealthCare.gov used tracking technologies for retargeting purposes but it appears likely to have played a role.    The use of retargeting in order to increase awareness of and enrollment in available health insurance plans would have been an understandable goal for the government. It is not, however, a free pass for the government to share user information and characteristics with an array of third-party commercial entities, without permission.    Sharing of personal information with third parties is a privacy concern for several reasons. People who visit government websites often do not have a choice. They must visit a designated online place in order to access specific government products and services. Personal data is valuable. When personal information is collected and shared, it is often combined with other data to build individual profiles. This profile is used to target products and services to you and is increasingly also used to create consumer scores that function similarly to credit scores. Health information in particular is sold for a high premium on underground markets, some experts estimate up to $40 to $50 a record, because it is fairly easy to monetize for criminals seeking to bill expensive medical items to Medicaid, for example, or to commit medical identity theft. The theft or use of health information is much harder to recognize and stop than the theft of financial data and more difficult for victims to seek redress.    The number of third-party content providers loading code into the browsers of visitors on HealthCare.gov poses serious security issues. Researchers have pointed to third-party content as one of the primary ways for websites to be infected with malware. Hackers wishing to compromise the integrity of third-party content providers can accomplish a wide range of attacks from simply changing the content of the page to capturing user information and credentials like passwords.    There is no evidence that personal information from HealthCare.gov has been misused but the number of outside parties that can load content and that can see personal information about users is troubling.    Overall, the privacy and security missteps taken by HealthCare.gov were avoidable. We recommend that the government immediately take the following steps: 1) follow sensible guidance available to them and to Office of Management and Budget documents on third-party sharing; 2) implement the six recommendations to protect user privacy and security on HealthCare.gov made in a 2014 report by the Government Accountability Office; 3) strengthen HealthCare.gov's privacy policy limiting third-party sharing only to which it needs to function; 4) implement in-house analytic software that does not report user data back to the software maker; 5) honor the wishes of consumers that express a preference in their browsers not to be tracked.    Ultimately, Congress can best protect consumer information by strengthening legal incentives for companies to better safeguard data and by enacting comprehensive data privacy legislation to give users more control over how their information is collected and used.    Thank you.</t>
   </si>
   <si>
+    <t>Wright</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wright. And it is a pleasure to be in the 10th District. Thank you.    Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, and Ranking Member Beyer, and Members of the Committee, thank you for inviting me again to testify.    I am Morgan Wright. I am a Principal of Morgan Wright, LLC. I provide advisory and consulting services to the private sector in the area of cybersecurity, advanced technology introduction, strategic planning, and identity theft solutions. In addition, I am currently a Senior Fellow for the Center for Digital Government. The Center is an advisory institute on information technology policies and best practices in state and local government.    Now, I had the honor of testifying before the Committee on November 18, 2013, concerning the security of HealthCare.gov at that time. Since that time, there has been progress made in addressing security and privacy concerns, but yet I find myself repeating many of the same observations today that I made nearly 15 months ago.    I was posed three questions from the Committee. As to the first question, in the healthcare field, there is an approach they call minimum effective dose, which is the lowest dose level that you need to get a significant response. If we apply that to third-party applications on the site, it is apparent to see that out of the 50 previously reported compared to the 11 I observed this morning when I checked the site again, that was an overdose not needed as evidenced by the action of removing 39 of them since discovery. In comparison, Whitehouse.gov and IRS.gov have only four and two third-party applications running respectively. There is no doubt some level of measurement is needed but 50 is digital overkill.    Numerous questions need to be answered by CMS. Are there any written agreements governing the collection and use of PII? How long has each third party been active on the site? How is the use of data governed and audited? Were consumers ever notified that their PII was being shared with third parties? And these are just a few of the questions.    As to the second question, the security of the site has been a primary point of weakness since before the launch on October 1, 2013. In my previous testimony, I highlighted several major issues prior to and after launch. Among them was the lack of and an ability to conduct an end-to-end security test on the production system. The fact that numerous security flaws, flaws that are the most basic type, are left to be discovered by outside third parties, makes it appear HealthCare.gov is crowdsourcing the security and privacy of this important site.    In September of 2014 the GAO issued a report on the site. The highlights state in part that weaknesses remain in both the processes used for managing information security and privacy, as well as the technical implementation of IT security controls. Just some of the key findings: one of the key findings, CMS has not fully implemented security and privacy management controls. It stated that it did not fully implement actions required by NIST before collecting and maintaining PII.    Another finding: CMS did not document key controls in system security plans. The findings said without complete system security plans, it will be difficult to make a fully informed judgment regarding the risk. Look, if an authorized security decision-maker cannot be fully informed to understand the current risk, it is inconceivable to think that sufficient information exists today to enable 50 third-party applications to operate on HealthCare.gov and to fully understand the associated risk.    Another finding: CMS did not conduct complete security testing. This is an echo of my previous testimony.    And one of the final ones: control weaknesses continue to threaten information and systems supporting HealthCare.gov. And in the finding it said CMS--and this is the troubling one--CMS did not restrict systems supporting the federally facilitated marketplace, FFM, from accessing the internet allowing these systems to access the internet may allow for unauthorized users to access data from the FFM network, increasing the risk that an attacker with access to the FFM could send data to an outside system or that malware could communicate with the command-and-control server.    The unmanaged access to outside connectivity is very disconcerting. The documented activities of Unit 6139A of the Chinese People's Liberation Army and the indictment of five of their members relied upon this exact recipe for their activities. The introduction of third-party applications combined with lack of security, oversight, and control raises the specter of current and undetected state-sponsored penetration of HealthCare.gov. Significant data breaches have been accomplished against far more secure systems.    And as to question three, as NIST continues its leadership role, it has spearheaded the development of the framework for improving critical infrastructure cybersecurity. A review of the framework provides valuable approaches for CMS to utilize in securing the site. The aspect of privacy is so fundamental that it was referred to 30 times in the document. One of the foundational documents is their Special Publication for Information Systems and a key section of the document is Appendix J, Privacy Control. It is a relatively new section but I believe that there is one control under there, AR-3, privacy requirements for contractors and service providers would be applicable in this case to the use of third-party applications and, if followed, would have allowed--would not have allowed for the proliferation of unmanaged data collection.    So thank you for your time and I look forward to your questions.</t>
   </si>
   <si>
@@ -121,6 +145,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Madam Chairman. And thank you to the panelists for being here today.    I can tell you that as a 30-plus year IT professional both in the Department of Defense and in the private sector I remain very, very concerned about the inadequacy of security and the safeguarding of consumers', hard-working taxpayers' personal private information.    Ms. De Mooy, in May of 2013 the President issued that Executive Order to establish an open data policy to make open and machine-readable data the new default for government information taking really historic steps to make government-held data more accessible to the public and to entrepreneurs while appropriately safeguarding sensitive information and rigorously protecting privacy, or so it is stated.    Let's go back for a second so that I can get this straight. Is it mandated in your opinion--it has been mandated by the government that Americans need to sign up for healthcare and that, for the most part, they will do so on the government-created website HealthCare.gov, correct?</t>
   </si>
   <si>
@@ -217,6 +247,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Madam Chairman.    I understand the purpose of retargeting. When I look at a barbecue or a bathroom vanity or a power tool on a hardware store website, I understand, but it doesn't necessarily make me comfortable that the same product pops up on the next website that I visit. And, you know, I understand the idea that companies want to be able to target me in a similar way, but I don't understand why HealthCare.gov would feel the need to have such similar tactics incorporated as to hardware store or Zappos or whatever. I mean it seems like a larger invasion of privacy. It seems like a larger invasion of privacy to me. Just wondering what your thoughts are, both of you?</t>
   </si>
   <si>
@@ -241,6 +277,9 @@
     <t xml:space="preserve">    Mr. Posey. Very good.    Thank you, Madam Chair. I yield back.    Chairwoman Comstock. Thank you.    I now recognize Ms. Bonamici for five minutes.</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chair Comstock and Ranking Member Lipinski.    This has been a very interesting discussion, and I have to say that it really highlights the issues of--two issues of importance: access to healthcare and protection of personal privacy. I spent part of this morning in a hearing in the Education Committee about privacy regarding student records, and I said then and will say again that whenever we are talking about legislating in the area of technology, it is always a challenge to find the right balance because, as we all know, the technology advances usually a lot quicker than the legislation so we want to make sure that we are finding the balance that protects people's privacy but does not inhibit valid, useful purposes for technology and advances in technology.    So I really do look forward to hearing from CMS and hearing their answers. I know we have had some hearings on this issue before but highlighting from them. As Ranking Member Beyer said, it would have been best to have them answer questions first and then we could follow up on what they said.    But, you know, I want to say that we all acknowledge that there are legitimate problems with HealthCare.gov. Certainly in my State of Oregon we did not do a good job at all with that. But it is also important to remember that the Affordable Care Act is about more than a website; it is about access to healthcare for millions of Americans.    I want to make sure that we don't, in this hearing and other hearings in the future, spread any sort of unfounded fear or misinformation when really our constituents are looking for clarity. So I hope we can help inform them about ways that they can protect their privacy online and specifically keep their personal information safe.    And I want to ask you, Ms. De Mooy, and follow up on the conversation you were having with Mr. Posey, that you say in your testimony that consumers from disadvantaged communities face more potential harm such as being profiled in databanks. So given the importance of the Affordable Care Act to disadvantaged communities that have historically lacked access to affordable healthcare, how can HealthCare.gov do a better job of serving those consumers while also protecting their privacy?</t>
   </si>
   <si>
@@ -286,6 +325,9 @@
     <t xml:space="preserve">    Ms. Bonamici. Thank you so much, and my time has expired. I yield back.    Thank you, Madam Chair.    Chairwoman Comstock. Okay. And now I recognize Mr. Palmer for five minutes.</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Following on that line of questioning, in the Anthem hack, the hackers got access to medical IDs and that is a little bit more problematic than just finding out what drugs people buy and whether or not they exercise, that sort of thing. Would it not create some issues in regard to violation of the HIPAA laws if a company bought that data and was able to specifically target advertising to people, for instance, who are diabetic or have certain other conditions? Let me address that Mr. Wright.</t>
   </si>
   <si>
@@ -344,6 +386,12 @@
   </si>
   <si>
     <t>412319</t>
+  </si>
+  <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    The traffic to the federal government health insurance website was up 58 percent compared to the same time last week in a week-to-week measurement. That was some 275,000 individuals that signed up, making it the busiest enrollment period of the past two months, and the comparisons from last year to this year are ``as an experience, pretty dramatic.'' What is your reaction to that?</t>
@@ -737,7 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +793,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,2669 +815,3067 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>103</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>103</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G97" t="s">
+        <v>124</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G99" t="s">
+        <v>124</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G101" t="s">
+        <v>124</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>109</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s">
+        <v>124</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s">
+        <v>124</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s">
+        <v>124</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>109</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s">
+        <v>124</v>
+      </c>
       <c r="H111" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93884.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93884.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>412657</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Beyer</t>
@@ -785,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,7 +802,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,3064 +827,3240 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>87</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>103</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>106</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>103</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>103</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>106</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G97" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G105" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G111" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
